--- a/cities/Mandaluyong/edges.xlsx
+++ b/cities/Mandaluyong/edges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Unida\Documents\VSC\Python\EpidemicSimulation\cities\Mandaluyong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32432CCB-2375-4B70-B5F9-0FE13149B795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791FCF99-F60B-4D0A-A997-0BD79B64B1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31282AF9-AD00-42B6-96A3-E46FF165D92D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Edge</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Node 2</t>
+  </si>
+  <si>
+    <t>Distance (m)</t>
   </si>
 </sst>
 </file>
@@ -396,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DA03A2-3B89-4DA5-A50A-1C8CBC6CC2AB}">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,8 +417,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -425,8 +431,11 @@
       <c r="C2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -436,8 +445,11 @@
       <c r="C3">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -447,8 +459,11 @@
       <c r="C4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -458,8 +473,11 @@
       <c r="C5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -469,8 +487,11 @@
       <c r="C6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -480,8 +501,11 @@
       <c r="C7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -491,8 +515,11 @@
       <c r="C8">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -502,8 +529,11 @@
       <c r="C9">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -513,8 +543,11 @@
       <c r="C10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -524,8 +557,11 @@
       <c r="C11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -535,8 +571,11 @@
       <c r="C12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -546,8 +585,11 @@
       <c r="C13">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -557,8 +599,11 @@
       <c r="C14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -568,8 +613,11 @@
       <c r="C15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -579,8 +627,11 @@
       <c r="C16">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -590,8 +641,11 @@
       <c r="C17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -601,8 +655,11 @@
       <c r="C18">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -612,8 +669,11 @@
       <c r="C19">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -623,8 +683,11 @@
       <c r="C20">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -634,8 +697,11 @@
       <c r="C21">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -645,8 +711,11 @@
       <c r="C22">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -656,8 +725,11 @@
       <c r="C23">
         <v>116</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -667,8 +739,11 @@
       <c r="C24">
         <v>116</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -678,8 +753,11 @@
       <c r="C25">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -689,8 +767,11 @@
       <c r="C26">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -700,8 +781,11 @@
       <c r="C27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -711,8 +795,11 @@
       <c r="C28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -722,8 +809,11 @@
       <c r="C29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -733,8 +823,11 @@
       <c r="C30">
         <v>116</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -744,8 +837,11 @@
       <c r="C31">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -755,8 +851,11 @@
       <c r="C32">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -766,8 +865,11 @@
       <c r="C33">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -777,8 +879,11 @@
       <c r="C34">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -788,8 +893,11 @@
       <c r="C35">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -799,8 +907,11 @@
       <c r="C36">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -810,8 +921,11 @@
       <c r="C37">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -821,8 +935,11 @@
       <c r="C38">
         <v>116</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -832,8 +949,11 @@
       <c r="C39">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -843,8 +963,11 @@
       <c r="C40">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -854,8 +977,11 @@
       <c r="C41">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -865,8 +991,11 @@
       <c r="C42">
         <v>29</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -876,8 +1005,11 @@
       <c r="C43">
         <v>33</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -887,8 +1019,11 @@
       <c r="C44">
         <v>18</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -898,8 +1033,11 @@
       <c r="C45">
         <v>36</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -909,8 +1047,11 @@
       <c r="C46">
         <v>35</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -920,8 +1061,11 @@
       <c r="C47">
         <v>34</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -931,8 +1075,11 @@
       <c r="C48">
         <v>34</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -942,8 +1089,11 @@
       <c r="C49">
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -953,8 +1103,11 @@
       <c r="C50">
         <v>44</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -964,8 +1117,11 @@
       <c r="C51">
         <v>36</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -975,8 +1131,11 @@
       <c r="C52">
         <v>35</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -986,8 +1145,11 @@
       <c r="C53">
         <v>37</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -997,8 +1159,11 @@
       <c r="C54">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1008,8 +1173,11 @@
       <c r="C55">
         <v>45</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1019,8 +1187,11 @@
       <c r="C56">
         <v>45</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1030,8 +1201,11 @@
       <c r="C57">
         <v>44</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1041,8 +1215,11 @@
       <c r="C58">
         <v>43</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1052,8 +1229,11 @@
       <c r="C59">
         <v>42</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1063,8 +1243,11 @@
       <c r="C60">
         <v>41</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1074,8 +1257,11 @@
       <c r="C61">
         <v>40</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1085,8 +1271,11 @@
       <c r="C62">
         <v>39</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1096,8 +1285,11 @@
       <c r="C63">
         <v>39</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1107,8 +1299,11 @@
       <c r="C64">
         <v>38</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1118,8 +1313,11 @@
       <c r="C65">
         <v>46</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1129,8 +1327,11 @@
       <c r="C66">
         <v>46</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1140,8 +1341,11 @@
       <c r="C67">
         <v>46</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1151,8 +1355,11 @@
       <c r="C68">
         <v>69</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1162,8 +1369,11 @@
       <c r="C69">
         <v>69</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1173,8 +1383,11 @@
       <c r="C70">
         <v>40</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1184,8 +1397,11 @@
       <c r="C71">
         <v>47</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1195,8 +1411,11 @@
       <c r="C72">
         <v>48</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1206,8 +1425,11 @@
       <c r="C73">
         <v>69</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1217,8 +1439,11 @@
       <c r="C74">
         <v>50</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1228,8 +1453,11 @@
       <c r="C75">
         <v>48</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1239,8 +1467,11 @@
       <c r="C76">
         <v>49</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1250,8 +1481,11 @@
       <c r="C77">
         <v>51</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1261,8 +1495,11 @@
       <c r="C78">
         <v>52</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1272,8 +1509,11 @@
       <c r="C79">
         <v>52</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1283,8 +1523,11 @@
       <c r="C80">
         <v>53</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1294,8 +1537,11 @@
       <c r="C81">
         <v>71</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1305,8 +1551,11 @@
       <c r="C82">
         <v>67</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1316,8 +1565,11 @@
       <c r="C83">
         <v>61</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1327,8 +1579,11 @@
       <c r="C84">
         <v>59</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1338,8 +1593,11 @@
       <c r="C85">
         <v>59</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1349,8 +1607,11 @@
       <c r="C86">
         <v>57</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1360,8 +1621,11 @@
       <c r="C87">
         <v>54</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1371,8 +1635,11 @@
       <c r="C88">
         <v>61</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1382,8 +1649,11 @@
       <c r="C89">
         <v>60</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1393,8 +1663,11 @@
       <c r="C90">
         <v>57</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1404,8 +1677,11 @@
       <c r="C91">
         <v>56</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1415,8 +1691,11 @@
       <c r="C92">
         <v>55</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1426,8 +1705,11 @@
       <c r="C93">
         <v>71</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1437,8 +1719,11 @@
       <c r="C94">
         <v>68</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1448,8 +1733,11 @@
       <c r="C95">
         <v>66</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1459,8 +1747,11 @@
       <c r="C96">
         <v>65</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1470,8 +1761,11 @@
       <c r="C97">
         <v>64</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1481,8 +1775,11 @@
       <c r="C98">
         <v>62</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1492,8 +1789,11 @@
       <c r="C99">
         <v>60</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -1503,8 +1803,11 @@
       <c r="C100">
         <v>58</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -1514,8 +1817,11 @@
       <c r="C101">
         <v>56</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D101">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -1525,8 +1831,11 @@
       <c r="C102">
         <v>64</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D102">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -1536,8 +1845,11 @@
       <c r="C103">
         <v>63</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D103">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -1547,8 +1859,12 @@
       <c r="C104">
         <v>62</v>
       </c>
+      <c r="D104">
+        <v>234</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>